--- a/text_summary/project_folder/Config/Config.xlsx
+++ b/text_summary/project_folder/Config/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo.morales\Documents\GitHub\GTFP\text_summary\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablomorales/Documents/GTFP/text_summary/project_folder/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C80807A-07C7-48DC-9C26-D189DDC9DA98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A30A617-AB25-9D46-AFE1-214B978A6C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="16875" windowHeight="10523" xr2:uid="{4B31313C-3A07-454B-8A14-CDC92107B5B6}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="16880" windowHeight="10520" xr2:uid="{4B31313C-3A07-454B-8A14-CDC92107B5B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Label</t>
   </si>
@@ -65,15 +65,9 @@
     <t>DocumentSavePath</t>
   </si>
   <si>
-    <t>C:\Users\pablo.morales\Desktop</t>
-  </si>
-  <si>
     <t>EmailAdress</t>
   </si>
   <si>
-    <t>pablo.morales@uipath.com</t>
-  </si>
-  <si>
     <t>TargetFolder</t>
   </si>
   <si>
@@ -83,16 +77,10 @@
     <t>ClipboardSavePath</t>
   </si>
   <si>
-    <t>C:\Users\pablo.morales\Documents\Python Scripts</t>
-  </si>
-  <si>
     <t>NumberOfEmails</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>C:\Users\pablo.morales\Documents\GitHub\GTFP\text_summary\miniconda_pack</t>
   </si>
 </sst>
 </file>
@@ -457,16 +445,16 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.86328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="65.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -482,7 +470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -490,7 +478,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -498,15 +486,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -514,53 +499,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>